--- a/backend/data/Cotacao.xlsx
+++ b/backend/data/Cotacao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,33 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Álcool Isopropílico</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Álcool-Isopropílico-Limpeza-Placas-Circuitos/dp/B0DGMJ9633/ref=asc_df_B0DGMJ9633/?tag=googleshopp00-20&amp;linkCode=df0&amp;hvadid=709986098834&amp;hvpos=&amp;hvnetw=g&amp;hvrand=5511000974376961432&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9197371&amp;hvtargid=pla-2364142716389&amp;psc=1&amp;mcid=981e11534b6c31b09f06ed5bc85e56a3&amp;gad_source=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>outros</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/Cotacao.xlsx
+++ b/backend/data/Cotacao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,33 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Álcool Isopropílico</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.amazon.com.br/Álcool-Isopropílico-Limpeza-Placas-Circuitos/dp/B0DGMJ9633/ref=asc_df_B0DGMJ9633/?tag=googleshopp00-20&amp;linkCode=df0&amp;hvadid=709986098834&amp;hvpos=&amp;hvnetw=g&amp;hvrand=5511000974376961432&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9197371&amp;hvtargid=pla-2364142716389&amp;psc=1&amp;mcid=981e11534b6c31b09f06ed5bc85e56a3&amp;gad_source=1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>outros</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
